--- a/data/minfin/19_questions.xlsx
+++ b/data/minfin/19_questions.xlsx
@@ -108,29 +108,29 @@
     <t>Стандартный налоговый предоставляется на каждого ребенка в возрасте до восемнадцати лет, а также на каждого учащегося в возрасте до двадцати четырех лет в размере одна тысяча четыреста рублей на первого и второго ребенка; три тысячи рублей - на третьего и каждого последующего ребенка; двенадцать тысяч рублей - на каждого ребенка в случае, если он является инвалидом первой или второй группы</t>
   </si>
   <si>
-    <t>В соответствии с пунктами 4 и 1 статьи 218 НК РФ родители, на обеспечении которых находятся дети, имеют право на стандартный налоговый вычет (предоставляемого на каждого ребенка в возрасте до 18 лет, а также на каждого учащегося очной формы обучения, аспиранта, ординатора, интерна, студента, курсанта в возрасте до 24 лет), который предоставляется в размере 
+    <t>Необходимо, нужно, подавать, налоговая декларация, форма, 3-НДФЛ, получения, получены, доходы, не подлежащие, налогообложению</t>
+  </si>
+  <si>
+    <t>Если лицо получает только доходы, не подлежащие налогообложению, либо если сумма налога с доходов была удержана налоговым агентом, обязанность подачи налоговой декларации по форме 3-НДФЛ отсутствует</t>
+  </si>
+  <si>
+    <t>Налоговый резидент, Российской Федерации, для целей налогообложения, налог на доходы физических лиц, НДФЛ</t>
+  </si>
+  <si>
+    <t>Налоговыми резидентами признаются физические лица, фактически находящиеся в Российской Федерации не менее ста восьмидесяти трех календарных дней в течение двенадцати следующих подряд месяцев</t>
+  </si>
+  <si>
+    <t>Налоговыми резидентами признаются физические лица, фактически находящиеся в Российской Федерации не менее 183 календарных дней в течение 12 следующих подряд месяцев</t>
+  </si>
+  <si>
+    <t>Обязанность подачи налоговой декларации по форме три - ЭН ДЭ ФЭ  ЭЛ отсутствует, если лицо получает только доходы, не подлежащие налогообложению, и если сумма налога с доходов была удержана налоговым агентом</t>
+  </si>
+  <si>
+    <t>В соответствии с подпунктом 4 пункта 1 статьи 218 НК РФ родители, на обеспечении которых находятся дети, имеют право на стандартный налоговый вычет (предоставляемого на каждого ребенка в возрасте до 18 лет, а также на каждого учащегося очной формы обучения, аспиранта, ординатора, интерна, студента, курсанта в возрасте до 24 лет), который предоставляется в размере 
 • 1400 рублей - на первого ребенка; 
 • 1400 рублей - на второго ребенка; 
 • 3 000 рублей - на третьего и каждого последующего ребенка и 
 • 12 000 рублей - на каждого ребенка в случае, если ребенок в возрасте до 18 лет является ребенком-инвалидом, или учащегося очной формы обучения, аспиранта, ординатора, интерна, студента в возрасте до 24 лет, если он является инвалидом I или II группы</t>
-  </si>
-  <si>
-    <t>Необходимо, нужно, подавать, налоговая декларация, форма, 3-НДФЛ, получения, получены, доходы, не подлежащие, налогообложению</t>
-  </si>
-  <si>
-    <t>Если лицо получает только доходы, не подлежащие налогообложению, либо если сумма налога с доходов была удержана налоговым агентом, обязанность подачи налоговой декларации по форме 3-НДФЛ отсутствует</t>
-  </si>
-  <si>
-    <t>Налоговый резидент, Российской Федерации, для целей налогообложения, налог на доходы физических лиц, НДФЛ</t>
-  </si>
-  <si>
-    <t>Налоговыми резидентами признаются физические лица, фактически находящиеся в Российской Федерации не менее ста восьмидесяти трех календарных дней в течение двенадцати следующих подряд месяцев</t>
-  </si>
-  <si>
-    <t>Налоговыми резидентами признаются физические лица, фактически находящиеся в Российской Федерации не менее 183 календарных дней в течение 12 следующих подряд месяцев</t>
-  </si>
-  <si>
-    <t>Обязанность подачи налоговой декларации по форме три - ЭН ДЭ ФЭ  ЭЛ отсутствует, если лицо получает только доходы, не подлежащие налогообложению, и если сумма налога с доходов была удержана налоговым агентом</t>
   </si>
 </sst>
 </file>
@@ -168,12 +168,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -231,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,7 +566,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -662,8 +671,8 @@
       <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>29</v>
+      <c r="D4" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
@@ -677,13 +686,13 @@
         <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
@@ -694,13 +703,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1">

--- a/data/minfin/19_questions.xlsx
+++ b/data/minfin/19_questions.xlsx
@@ -105,9 +105,6 @@
     <t>Размер, предоставляется, предоставление, стандартный, налоговый вычет, родителям, на обеспечении, находятся дети</t>
   </si>
   <si>
-    <t>Стандартный налоговый предоставляется на каждого ребенка в возрасте до восемнадцати лет, а также на каждого учащегося в возрасте до двадцати четырех лет в размере одна тысяча четыреста рублей на первого и второго ребенка; три тысячи рублей - на третьего и каждого последующего ребенка; двенадцать тысяч рублей - на каждого ребенка в случае, если он является инвалидом первой или второй группы</t>
-  </si>
-  <si>
     <t>Необходимо, нужно, подавать, налоговая декларация, форма, 3-НДФЛ, получения, получены, доходы, не подлежащие, налогообложению</t>
   </si>
   <si>
@@ -132,12 +129,37 @@
 • 3 000 рублей - на третьего и каждого последующего ребенка и 
 • 12 000 рублей - на каждого ребенка в случае, если ребенок в возрасте до 18 лет является ребенком-инвалидом, или учащегося очной формы обучения, аспиранта, ординатора, интерна, студента в возрасте до 24 лет, если он является инвалидом I или II группы</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Стандартный налоговый </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>вычет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> предоставляется на каждого ребенка в возрасте до восемнадцати лет, а также на каждого учащегося в возрасте до двадцати четырех лет в размере одна тысяча четыреста рублей на первого и второго ребенка; три тысячи рублей - на третьего и каждого последующего ребенка; двенадцать тысяч рублей - на каждого ребенка в случае, если он является инвалидом первой или второй группы</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +189,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,6 +274,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,7 +604,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -668,11 +706,11 @@
       <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>28</v>
+      <c r="C4" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
@@ -686,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
@@ -703,13 +741,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1">

--- a/data/minfin/19_questions.xlsx
+++ b/data/minfin/19_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Налоговыми резидентами признаются физические лица, фактически находящиеся в Российской Федерации не менее 183 календарных дней в течение 12 следующих подряд месяцев</t>
-  </si>
-  <si>
-    <t>Обязанность подачи налоговой декларации по форме три - ЭН ДЭ ФЭ  ЭЛ отсутствует, если лицо получает только доходы, не подлежащие налогообложению, и если сумма налога с доходов была удержана налоговым агентом</t>
   </si>
   <si>
     <t>В соответствии с подпунктом 4 пункта 1 статьи 218 НК РФ родители, на обеспечении которых находятся дети, имеют право на стандартный налоговый вычет (предоставляемого на каждого ребенка в возрасте до 18 лет, а также на каждого учащегося очной формы обучения, аспиранта, ординатора, интерна, студента, курсанта в возрасте до 24 лет), который предоставляется в размере 
@@ -153,6 +150,9 @@
       </rPr>
       <t xml:space="preserve"> предоставляется на каждого ребенка в возрасте до восемнадцати лет, а также на каждого учащегося в возрасте до двадцати четырех лет в размере одна тысяча четыреста рублей на первого и второго ребенка; три тысячи рублей - на третьего и каждого последующего ребенка; двенадцать тысяч рублей - на каждого ребенка в случае, если он является инвалидом первой или второй группы</t>
     </r>
+  </si>
+  <si>
+    <t>Обязанность подачи налоговой декларации по форме три ЭНДЭФЭ  ЭЛ отсутствует, если лицо получает только доходы, не подлежащие налогообложению, и если сумма налога с доходов была удержана налоговым агентом</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,10 +601,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -707,10 +707,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
@@ -724,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>29</v>
